--- a/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
@@ -484,7 +484,11 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ממתין לדירוג</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>2023-01-21 16:51:19.653111</t>

--- a/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,270 +465,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>candidate0@gmail.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first 0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>last 0</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ממתין לדירוג</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>candidate1@gmail.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first 1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>last 1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>candidate2@gmail.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>first 2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>last 2</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>candidate3@gmail.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>first 3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>last 3</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>candidate4@gmail.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first 4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>last 4</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>candidate5@gmail.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>first 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>last 5</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>candidate6@gmail.com</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>first 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>last 6</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>candidate7@gmail.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>first 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>last 7</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>candidate8@gmail.com</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>first 8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>last 8</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>candidate9@gmail.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>first 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>last 9</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2023-01-21 16:51:19.653111</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,36 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>halroy13@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>רוי</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>הלחמי</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>מועמד חדש</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-01-22 16:27:15.458863+00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>דוא"ל</t>
+          <t>אימייל</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,34 +451,34 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>מספר שלב</t>
+          <t>שלב</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>סטטוס תהליך</t>
+          <t>סטטוס</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>חותמת זמן</t>
+          <t>זמן</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>halroy13@gmail.com</t>
+          <t>candidate0@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>רוי</t>
+          <t>דוד</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>הלחמי</t>
+          <t>חי</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -490,6 +490,66 @@
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-01-22 17:09:02.197615+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>candidate1@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>משה</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>שמחון</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>מועמד חדש</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-01-22 17:09:23.363519+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>halroy13@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>רוי</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>הלחמי</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>מועמד חדש</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-01-22 16:27:15.458863+00:00</t>
         </is>

--- a/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-01-22 17:09:02.197615+00:00</t>
+          <t>2023-01-22 17:09:02.197615</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-01-22 17:09:23.363519+00:00</t>
+          <t>2023-01-22 17:09:23.363519</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-01-22 16:27:15.458863+00:00</t>
+          <t>2023-01-23 11:18:12.085174</t>
         </is>
       </c>
     </row>

--- a/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/candidatesTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>דוא"ל</t>
+          <t>אימייל</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,12 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>מספר שלב</t>
+          <t>שלב</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>סטטוס תהליך</t>
+          <t>סטטוס</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>זמן</t>
         </is>
       </c>
     </row>
@@ -468,18 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>first 0</t>
+          <t>דוד</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>last 0</t>
+          <t>חי</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>מועמד חדש</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-01-22 17:09:02.197615</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,186 +503,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>first 1</t>
+          <t>משה</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>last 1</t>
+          <t>שמחון</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>מועמד חדש</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-01-22 17:09:23.363519</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>candidate2@gmail.com</t>
+          <t>halroy13@gmail.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>first 2</t>
+          <t>רוי</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>last 2</t>
+          <t>הלחמי</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>candidate3@gmail.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>first 3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>last 3</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>candidate4@gmail.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first 4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>last 4</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>candidate5@gmail.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>first 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>last 5</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>candidate6@gmail.com</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>first 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>last 6</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>candidate7@gmail.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>first 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>last 7</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>candidate8@gmail.com</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>first 8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>last 8</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>candidate9@gmail.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>first 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>last 9</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>מועמד חדש</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-01-23 11:18:12.085174</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
